--- a/5sem/55/tables/data.xlsx
+++ b/5sem/55/tables/data.xlsx
@@ -45,7 +45,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +66,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,10 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -365,338 +378,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>597.48</v>
+      </c>
+      <c r="C2" s="4">
+        <v>41.98</v>
+      </c>
+      <c r="D2" s="4">
+        <v>511.4252267</v>
+      </c>
+      <c r="E2" s="4">
+        <v>40.187076179999998</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/D2</f>
+        <v>7.8578595818022831E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1395.23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>76.63</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1275.104122</v>
+      </c>
+      <c r="E3" s="4">
+        <v>73.357209330000003</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3/D3</f>
+        <v>5.7530367963158392E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>754.22</v>
+      </c>
+      <c r="C4" s="4">
+        <v>47.37</v>
+      </c>
+      <c r="D4" s="4">
+        <v>661.47101799999996</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45.346874669999998</v>
+      </c>
+      <c r="F4" s="3">
+        <f>E4/D4</f>
+        <v>6.8554590353949563E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>1286.0999999999999</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C5" s="4">
         <v>65.12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D5" s="4">
         <v>1170.634955</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E5" s="4">
         <v>62.338789920000004</v>
       </c>
-      <c r="E2">
-        <f>D2/C2</f>
+      <c r="F5" s="3">
+        <f>E5/D5</f>
         <v>5.3252117283649716E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>1450.59</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C6" s="4">
         <v>73.3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D6" s="4">
         <v>1328.0997520000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E6" s="4">
         <v>70.169430300000002</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">D3/C3</f>
+      <c r="F6" s="3">
+        <f>E6/D6</f>
         <v>5.2834457799070499E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>597.48</v>
-      </c>
-      <c r="B4" s="1">
-        <v>41.98</v>
-      </c>
-      <c r="C4" s="1">
-        <v>511.4252267</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40.187076179999998</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>7.8578595818022831E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1395.23</v>
-      </c>
-      <c r="B5" s="1">
-        <v>76.63</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1275.104122</v>
-      </c>
-      <c r="D5" s="1">
-        <v>73.357209330000003</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>5.7530367963158392E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>754.22</v>
-      </c>
-      <c r="B6" s="1">
-        <v>47.37</v>
-      </c>
-      <c r="C6" s="1">
-        <v>661.47101799999996</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45.346874669999998</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>6.8554590353949563E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>135.57</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="4">
         <v>9.4499999999999993</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="4">
         <v>69.242940869999998</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="4">
         <v>9.0463999499999996</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F8" si="0">E7/D7</f>
         <v>0.13064725207128539</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>100.15</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>35.335693650000003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10.051555499999999</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.28445898358641669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>112.94</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12.6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>47.579445540000002</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12.0618666</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.25351002860803828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>160.97999999999999</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15.98</v>
-      </c>
-      <c r="C10" s="1">
-        <v>93.567705180000004</v>
-      </c>
-      <c r="D10" s="1">
-        <v>15.29751018</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.16349134726101872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
         <v>199.01</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C8" s="4">
         <v>12.26</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D8" s="4">
         <v>129.9734819</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E8" s="4">
         <v>11.73638766</v>
       </c>
-      <c r="E11">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>9.0298324615399883E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>244.09</v>
-      </c>
-      <c r="B12" s="1">
-        <v>17.46</v>
-      </c>
-      <c r="C12" s="1">
-        <v>173.1281602</v>
-      </c>
-      <c r="D12" s="1">
-        <v>16.714300860000002</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>9.6542935826796836E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>320.81</v>
-      </c>
-      <c r="B13" s="1">
-        <v>23.07</v>
-      </c>
-      <c r="C13" s="1">
-        <v>246.5715257</v>
-      </c>
-      <c r="D13" s="1">
-        <v>22.08470337</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>8.9567127864026513E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>421.72</v>
-      </c>
-      <c r="B14" s="1">
-        <v>30.43</v>
-      </c>
-      <c r="C14" s="1">
-        <v>343.1717605</v>
-      </c>
-      <c r="D14" s="1">
-        <v>29.130365130000001</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>8.4885670917552086E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>821.28</v>
-      </c>
-      <c r="B15" s="1">
-        <v>48.93</v>
-      </c>
-      <c r="C15" s="1">
-        <v>725.66695249999998</v>
-      </c>
-      <c r="D15" s="1">
-        <v>46.840248629999998</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>6.4547859687740156E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1060.01</v>
-      </c>
-      <c r="B16" s="1">
-        <v>62.75</v>
-      </c>
-      <c r="C16" s="1">
-        <v>954.20103289999997</v>
-      </c>
-      <c r="D16" s="1">
-        <v>60.070010250000003</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>6.2953201871345413E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1205.2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>88.17</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1093.1901130000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>84.404347470000005</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>7.7209212255288664E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1525.17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>84.84</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1399.494514</v>
-      </c>
-      <c r="D18" s="1">
-        <v>81.216568440000003</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>5.803278800133975E-2</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>421.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>343.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>